--- a/REGULAR/1-RETIRED/DE CASTRO LEO ANGELO T..xlsx
+++ b/REGULAR/1-RETIRED/DE CASTRO LEO ANGELO T..xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\1-RETIRED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9512093-3F60-44E7-90E5-4106582699B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
+    <sheet name="CASUAL RECORD" sheetId="5" r:id="rId2"/>
+    <sheet name="TERMINAL PENDING" sheetId="1" r:id="rId3"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="1">Table15[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL RECORD'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'TERMINAL PENDING'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,11 +213,20 @@
       <t>JULY 01, 2022</t>
     </r>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>CASUAL</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -657,33 +668,96 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="40">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -694,14 +768,51 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -715,21 +826,59 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -747,7 +896,34 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -766,32 +942,39 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -815,24 +998,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -840,180 +1016,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1031,6 +1036,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1057,7 +1065,247 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1105,7 +1353,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1396,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1460,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1520,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1586,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1649,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1747,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1806,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1871,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1914,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1989,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +2175,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +2241,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2299,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2365,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2421,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2496,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2539,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2605,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2661,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2759,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2822,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,23 +2888,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K54" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+      <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4"/>
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2668,13 +2916,41 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+  <tableColumns count="11">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29"/>
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="BALANCE_2"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="20">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2682,15 +2958,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="17"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="16">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="15">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2994,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3004,7 +3280,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3012,34 +3288,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
-  <sheetPr codeName="Sheet2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K63"/>
+  <dimension ref="A2:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A45" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="3690"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3327,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64"/>
+      <c r="F2" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="G2" s="64"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
@@ -3060,7 +3338,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3070,7 +3348,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="65">
-        <v>43468</v>
+        <v>43649</v>
       </c>
       <c r="G3" s="62"/>
       <c r="H3" s="26" t="s">
@@ -3080,12 +3358,12 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
@@ -3102,7 +3380,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3110,7 +3388,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3123,7 +3401,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -3140,7 +3418,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3453,1050 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
+        <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>1.167</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
+        <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>1.167</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>45110</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13">
+        <v>1.167</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.167</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>45169</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>45199</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>45230</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>45596</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>45626</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>45657</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>45716</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>45747</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>45777</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>45808</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>45838</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>45869</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>45900</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>45930</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="39"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>45961</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>45991</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>46022</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>46053</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>46081</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>46112</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="39"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>46142</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
+        <v>46173</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
+        <v>46203</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
+        <v>46234</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>46265</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>46295</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>46326</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>46356</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>46387</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>46418</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="39"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>46446</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: &amp;UJUEL D. COPER&amp;U
+DATE: &amp;D, &amp;T&amp;C
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                            OIC -  HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K63"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="65">
+        <v>43468</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3198,7 +4519,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -3220,7 +4541,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="46"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43468</v>
       </c>
@@ -3240,7 +4561,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43497</v>
       </c>
@@ -3260,7 +4581,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43525</v>
       </c>
@@ -3280,7 +4601,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43556</v>
       </c>
@@ -3300,7 +4621,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43586</v>
       </c>
@@ -3320,7 +4641,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43617</v>
       </c>
@@ -3340,7 +4661,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43647</v>
       </c>
@@ -3360,7 +4681,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43678</v>
       </c>
@@ -3380,7 +4701,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43709</v>
       </c>
@@ -3400,7 +4721,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43739</v>
       </c>
@@ -3420,7 +4741,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43770</v>
       </c>
@@ -3440,7 +4761,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43800</v>
       </c>
@@ -3464,7 +4785,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>46</v>
       </c>
@@ -3482,7 +4803,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43831</v>
       </c>
@@ -3502,7 +4823,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43862</v>
       </c>
@@ -3522,7 +4843,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43891</v>
       </c>
@@ -3542,7 +4863,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43922</v>
       </c>
@@ -3562,7 +4883,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43952</v>
       </c>
@@ -3582,7 +4903,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43983</v>
       </c>
@@ -3602,7 +4923,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44013</v>
       </c>
@@ -3622,7 +4943,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44044</v>
       </c>
@@ -3642,7 +4963,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44075</v>
       </c>
@@ -3662,7 +4983,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44105</v>
       </c>
@@ -3682,7 +5003,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44136</v>
       </c>
@@ -3702,7 +5023,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44166</v>
       </c>
@@ -3726,7 +5047,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>48</v>
       </c>
@@ -3744,7 +5065,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44197</v>
       </c>
@@ -3764,7 +5085,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44228</v>
       </c>
@@ -3784,7 +5105,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44256</v>
       </c>
@@ -3804,7 +5125,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44287</v>
       </c>
@@ -3824,7 +5145,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44317</v>
       </c>
@@ -3844,7 +5165,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44348</v>
       </c>
@@ -3864,7 +5185,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44378</v>
       </c>
@@ -3884,7 +5205,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44409</v>
       </c>
@@ -3904,7 +5225,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44440</v>
       </c>
@@ -3924,7 +5245,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44470</v>
       </c>
@@ -3944,7 +5265,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44501</v>
       </c>
@@ -3964,7 +5285,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44531</v>
       </c>
@@ -3988,7 +5309,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>49</v>
       </c>
@@ -4006,7 +5327,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44562</v>
       </c>
@@ -4026,7 +5347,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44593</v>
       </c>
@@ -4046,7 +5367,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44621</v>
       </c>
@@ -4066,7 +5387,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44652</v>
       </c>
@@ -4086,7 +5407,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44682</v>
       </c>
@@ -4106,7 +5427,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44742</v>
       </c>
@@ -4126,7 +5447,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="48" t="s">
         <v>53</v>
@@ -4144,7 +5465,7 @@
       <c r="J56" s="53"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="54"/>
       <c r="C57" s="13"/>
@@ -4164,7 +5485,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="49"/>
       <c r="C58" s="13" t="s">
@@ -4182,7 +5503,7 @@
       <c r="J58" s="53"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4195,7 +5516,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4208,7 +5529,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4221,7 +5542,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4234,7 +5555,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4262,10 +5583,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4287,8 +5608,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -4296,21 +5617,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -4323,7 +5644,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4352,7 +5673,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -4374,17 +5695,17 @@
         <v>1.167</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4405,7 +5726,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4432,7 +5753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4458,7 +5779,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4484,7 +5805,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4510,7 +5831,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4536,7 +5857,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4562,7 +5883,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4588,7 +5909,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4614,7 +5935,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4634,7 +5955,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4654,7 +5975,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4674,7 +5995,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4695,7 +6016,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4716,7 +6037,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4737,7 +6058,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4758,7 +6079,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4779,7 +6100,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4800,7 +6121,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4821,7 +6142,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4842,7 +6163,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4863,7 +6184,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4884,7 +6205,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4905,7 +6226,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4926,7 +6247,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4947,7 +6268,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4968,7 +6289,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4989,7 +6310,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5010,7 +6331,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5031,7 +6352,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5052,7 +6373,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5073,7 +6394,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5094,7 +6415,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5103,7 +6424,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5112,7 +6433,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5121,7 +6442,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5130,7 +6451,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5139,7 +6460,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5148,7 +6469,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5157,7 +6478,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5166,7 +6487,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5175,7 +6496,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5184,7 +6505,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5193,7 +6514,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5202,7 +6523,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5211,7 +6532,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5220,7 +6541,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5229,7 +6550,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5238,7 +6559,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5247,7 +6568,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5256,7 +6577,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5265,7 +6586,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5274,7 +6595,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5283,7 +6604,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5292,7 +6613,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5301,7 +6622,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5310,7 +6631,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5319,7 +6640,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5328,7 +6649,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5337,7 +6658,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5346,7 +6667,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5355,7 +6676,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
